--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il1b-Il1rap.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il1b-Il1rap.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.197811</v>
+        <v>0.420398</v>
       </c>
       <c r="H2">
-        <v>0.593433</v>
+        <v>1.261194</v>
       </c>
       <c r="I2">
-        <v>0.001274141111268169</v>
+        <v>0.001794717364332138</v>
       </c>
       <c r="J2">
-        <v>0.001274141111268169</v>
+        <v>0.001794717364332138</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.652098</v>
+        <v>1.365066333333333</v>
       </c>
       <c r="N2">
-        <v>7.956294000000001</v>
+        <v>4.095199</v>
       </c>
       <c r="O2">
-        <v>0.1783170651171436</v>
+        <v>0.1025111867562684</v>
       </c>
       <c r="P2">
-        <v>0.1783170651171436</v>
+        <v>0.1025111867562683</v>
       </c>
       <c r="Q2">
-        <v>0.524614157478</v>
+        <v>0.5738711564006667</v>
       </c>
       <c r="R2">
-        <v>4.721527417302</v>
+        <v>5.164840407606</v>
       </c>
       <c r="S2">
-        <v>0.0002272011035064358</v>
+        <v>0.0001839786069097695</v>
       </c>
       <c r="T2">
-        <v>0.0002272011035064359</v>
+        <v>0.0001839786069097695</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.197811</v>
+        <v>0.420398</v>
       </c>
       <c r="H3">
-        <v>0.593433</v>
+        <v>1.261194</v>
       </c>
       <c r="I3">
-        <v>0.001274141111268169</v>
+        <v>0.001794717364332138</v>
       </c>
       <c r="J3">
-        <v>0.001274141111268169</v>
+        <v>0.001794717364332138</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.511188</v>
+        <v>5.511188000000001</v>
       </c>
       <c r="N3">
         <v>16.533564</v>
       </c>
       <c r="O3">
-        <v>0.3705514914866721</v>
+        <v>0.4138688417707456</v>
       </c>
       <c r="P3">
-        <v>0.3705514914866722</v>
+        <v>0.4138688417707455</v>
       </c>
       <c r="Q3">
-        <v>1.090173609468</v>
+        <v>2.316892412824</v>
       </c>
       <c r="R3">
-        <v>9.811562485211999</v>
+        <v>20.852031715416</v>
       </c>
       <c r="S3">
-        <v>0.0004721348891449059</v>
+        <v>0.000742777596881987</v>
       </c>
       <c r="T3">
-        <v>0.000472134889144906</v>
+        <v>0.0007427775968819869</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.197811</v>
+        <v>0.420398</v>
       </c>
       <c r="H4">
-        <v>0.593433</v>
+        <v>1.261194</v>
       </c>
       <c r="I4">
-        <v>0.001274141111268169</v>
+        <v>0.001794717364332138</v>
       </c>
       <c r="J4">
-        <v>0.001274141111268169</v>
+        <v>0.001794717364332138</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.422738333333334</v>
+        <v>4.174538333333333</v>
       </c>
       <c r="N4">
-        <v>13.268215</v>
+        <v>12.523615</v>
       </c>
       <c r="O4">
-        <v>0.2973682418150035</v>
+        <v>0.3134916364573745</v>
       </c>
       <c r="P4">
-        <v>0.2973682418150035</v>
+        <v>0.3134916364573745</v>
       </c>
       <c r="Q4">
-        <v>0.8748662924550001</v>
+        <v>1.754967566256667</v>
       </c>
       <c r="R4">
-        <v>7.873796632095001</v>
+        <v>15.79470809631</v>
       </c>
       <c r="S4">
-        <v>0.0003788891020820301</v>
+        <v>0.000562628883522948</v>
       </c>
       <c r="T4">
-        <v>0.0003788891020820302</v>
+        <v>0.0005626288835229479</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.197811</v>
+        <v>0.420398</v>
       </c>
       <c r="H5">
-        <v>0.593433</v>
+        <v>1.261194</v>
       </c>
       <c r="I5">
-        <v>0.001274141111268169</v>
+        <v>0.001794717364332138</v>
       </c>
       <c r="J5">
-        <v>0.001274141111268169</v>
+        <v>0.001794717364332138</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.28691</v>
+        <v>2.265474333333334</v>
       </c>
       <c r="N5">
-        <v>6.860729999999999</v>
+        <v>6.796423000000001</v>
       </c>
       <c r="O5">
-        <v>0.1537632015811809</v>
+        <v>0.1701283350156116</v>
       </c>
       <c r="P5">
-        <v>0.1537632015811809</v>
+        <v>0.1701283350156116</v>
       </c>
       <c r="Q5">
-        <v>0.4523759540099999</v>
+        <v>0.9524008787846668</v>
       </c>
       <c r="R5">
-        <v>4.07138358609</v>
+        <v>8.571607909062003</v>
       </c>
       <c r="S5">
-        <v>0.0001959160165347973</v>
+        <v>0.0003053322770174334</v>
       </c>
       <c r="T5">
-        <v>0.0001959160165347974</v>
+        <v>0.0003053322770174334</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.046026666666667</v>
+        <v>0.04680500000000001</v>
       </c>
       <c r="H6">
-        <v>3.13808</v>
+        <v>0.140415</v>
       </c>
       <c r="I6">
-        <v>0.00673767171432734</v>
+        <v>0.0001998148093891163</v>
       </c>
       <c r="J6">
-        <v>0.006737671714327341</v>
+        <v>0.0001998148093891163</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.652098</v>
+        <v>1.365066333333333</v>
       </c>
       <c r="N6">
-        <v>7.956294000000001</v>
+        <v>4.095199</v>
       </c>
       <c r="O6">
-        <v>0.1783170651171436</v>
+        <v>0.1025111867562684</v>
       </c>
       <c r="P6">
-        <v>0.1783170651171436</v>
+        <v>0.1025111867562683</v>
       </c>
       <c r="Q6">
-        <v>2.774165230613333</v>
+        <v>0.06389192973166667</v>
       </c>
       <c r="R6">
-        <v>24.96748707552</v>
+        <v>0.5750273675850001</v>
       </c>
       <c r="S6">
-        <v>0.001201441845821645</v>
+        <v>2.048325324195586E-05</v>
       </c>
       <c r="T6">
-        <v>0.001201441845821645</v>
+        <v>2.048325324195586E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.046026666666667</v>
+        <v>0.04680500000000001</v>
       </c>
       <c r="H7">
-        <v>3.13808</v>
+        <v>0.140415</v>
       </c>
       <c r="I7">
-        <v>0.00673767171432734</v>
+        <v>0.0001998148093891163</v>
       </c>
       <c r="J7">
-        <v>0.006737671714327341</v>
+        <v>0.0001998148093891163</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.511188</v>
+        <v>5.511188000000001</v>
       </c>
       <c r="N7">
         <v>16.533564</v>
       </c>
       <c r="O7">
-        <v>0.3705514914866721</v>
+        <v>0.4138688417707456</v>
       </c>
       <c r="P7">
-        <v>0.3705514914866722</v>
+        <v>0.4138688417707455</v>
       </c>
       <c r="Q7">
-        <v>5.764849613013333</v>
+        <v>0.25795115434</v>
       </c>
       <c r="R7">
-        <v>51.88364651711999</v>
+        <v>2.321560389060001</v>
       </c>
       <c r="S7">
-        <v>0.002496654302891559</v>
+        <v>8.269712373051585E-05</v>
       </c>
       <c r="T7">
-        <v>0.00249665430289156</v>
+        <v>8.269712373051583E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.046026666666667</v>
+        <v>0.04680500000000001</v>
       </c>
       <c r="H8">
-        <v>3.13808</v>
+        <v>0.140415</v>
       </c>
       <c r="I8">
-        <v>0.00673767171432734</v>
+        <v>0.0001998148093891163</v>
       </c>
       <c r="J8">
-        <v>0.006737671714327341</v>
+        <v>0.0001998148093891163</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.422738333333334</v>
+        <v>4.174538333333333</v>
       </c>
       <c r="N8">
-        <v>13.268215</v>
+        <v>12.523615</v>
       </c>
       <c r="O8">
-        <v>0.2973682418150035</v>
+        <v>0.3134916364573745</v>
       </c>
       <c r="P8">
-        <v>0.2973682418150035</v>
+        <v>0.3134916364573745</v>
       </c>
       <c r="Q8">
-        <v>4.626302236355556</v>
+        <v>0.1953892666916667</v>
       </c>
       <c r="R8">
-        <v>41.63672012720001</v>
+        <v>1.758503400225</v>
       </c>
       <c r="S8">
-        <v>0.002003569591616202</v>
+        <v>6.264027158381243E-05</v>
       </c>
       <c r="T8">
-        <v>0.002003569591616202</v>
+        <v>6.264027158381242E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.046026666666667</v>
+        <v>0.04680500000000001</v>
       </c>
       <c r="H9">
-        <v>3.13808</v>
+        <v>0.140415</v>
       </c>
       <c r="I9">
-        <v>0.00673767171432734</v>
+        <v>0.0001998148093891163</v>
       </c>
       <c r="J9">
-        <v>0.006737671714327341</v>
+        <v>0.0001998148093891163</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.28691</v>
+        <v>2.265474333333334</v>
       </c>
       <c r="N9">
-        <v>6.860729999999999</v>
+        <v>6.796423000000001</v>
       </c>
       <c r="O9">
-        <v>0.1537632015811809</v>
+        <v>0.1701283350156116</v>
       </c>
       <c r="P9">
-        <v>0.1537632015811809</v>
+        <v>0.1701283350156116</v>
       </c>
       <c r="Q9">
-        <v>2.392168844266666</v>
+        <v>0.1060355261716667</v>
       </c>
       <c r="R9">
-        <v>21.5295195984</v>
+        <v>0.9543197355450002</v>
       </c>
       <c r="S9">
-        <v>0.001036005973997935</v>
+        <v>3.399416083283215E-05</v>
       </c>
       <c r="T9">
-        <v>0.001036005973997936</v>
+        <v>3.399416083283215E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>154.0066273333333</v>
+        <v>233.774694</v>
       </c>
       <c r="H10">
-        <v>462.0198819999999</v>
+        <v>701.324082</v>
       </c>
       <c r="I10">
-        <v>0.9919881871744044</v>
+        <v>0.9980054678262787</v>
       </c>
       <c r="J10">
-        <v>0.9919881871744045</v>
+        <v>0.9980054678262787</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.652098</v>
+        <v>1.365066333333333</v>
       </c>
       <c r="N10">
-        <v>7.956294000000001</v>
+        <v>4.095199</v>
       </c>
       <c r="O10">
-        <v>0.1783170651171436</v>
+        <v>0.1025111867562684</v>
       </c>
       <c r="P10">
-        <v>0.1783170651171436</v>
+        <v>0.1025111867562683</v>
       </c>
       <c r="Q10">
-        <v>408.4406683374786</v>
+        <v>319.1179643647019</v>
       </c>
       <c r="R10">
-        <v>3675.966015037308</v>
+        <v>2872.061679282318</v>
       </c>
       <c r="S10">
-        <v>0.1768884221678155</v>
+        <v>0.1023067248961166</v>
       </c>
       <c r="T10">
-        <v>0.1768884221678155</v>
+        <v>0.1023067248961166</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>154.0066273333333</v>
+        <v>233.774694</v>
       </c>
       <c r="H11">
-        <v>462.0198819999999</v>
+        <v>701.324082</v>
       </c>
       <c r="I11">
-        <v>0.9919881871744044</v>
+        <v>0.9980054678262787</v>
       </c>
       <c r="J11">
-        <v>0.9919881871744045</v>
+        <v>0.9980054678262787</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.511188</v>
+        <v>5.511188000000001</v>
       </c>
       <c r="N11">
         <v>16.533564</v>
       </c>
       <c r="O11">
-        <v>0.3705514914866721</v>
+        <v>0.4138688417707456</v>
       </c>
       <c r="P11">
-        <v>0.3705514914866722</v>
+        <v>0.4138688417707455</v>
       </c>
       <c r="Q11">
-        <v>848.7594764799385</v>
+        <v>1288.376288276472</v>
       </c>
       <c r="R11">
-        <v>7638.835288319447</v>
+        <v>11595.38659448825</v>
       </c>
       <c r="S11">
-        <v>0.3675827022946356</v>
+        <v>0.4130433670501331</v>
       </c>
       <c r="T11">
-        <v>0.3675827022946357</v>
+        <v>0.413043367050133</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>154.0066273333333</v>
+        <v>233.774694</v>
       </c>
       <c r="H12">
-        <v>462.0198819999999</v>
+        <v>701.324082</v>
       </c>
       <c r="I12">
-        <v>0.9919881871744044</v>
+        <v>0.9980054678262787</v>
       </c>
       <c r="J12">
-        <v>0.9919881871744045</v>
+        <v>0.9980054678262787</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.422738333333334</v>
+        <v>4.174538333333333</v>
       </c>
       <c r="N12">
-        <v>13.268215</v>
+        <v>12.523615</v>
       </c>
       <c r="O12">
-        <v>0.2973682418150035</v>
+        <v>0.3134916364573745</v>
       </c>
       <c r="P12">
-        <v>0.2973682418150035</v>
+        <v>0.3134916364573745</v>
       </c>
       <c r="Q12">
-        <v>681.1310142945144</v>
+        <v>975.90142146627</v>
       </c>
       <c r="R12">
-        <v>6130.17912865063</v>
+        <v>8783.112793196429</v>
       </c>
       <c r="S12">
-        <v>0.2949857831213052</v>
+        <v>0.3128663673022678</v>
       </c>
       <c r="T12">
-        <v>0.2949857831213052</v>
+        <v>0.3128663673022677</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>154.0066273333333</v>
+        <v>233.774694</v>
       </c>
       <c r="H13">
-        <v>462.0198819999999</v>
+        <v>701.324082</v>
       </c>
       <c r="I13">
-        <v>0.9919881871744044</v>
+        <v>0.9980054678262787</v>
       </c>
       <c r="J13">
-        <v>0.9919881871744045</v>
+        <v>0.9980054678262787</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.28691</v>
+        <v>2.265474333333334</v>
       </c>
       <c r="N13">
-        <v>6.860729999999999</v>
+        <v>6.796423000000001</v>
       </c>
       <c r="O13">
-        <v>0.1537632015811809</v>
+        <v>0.1701283350156116</v>
       </c>
       <c r="P13">
-        <v>0.1537632015811809</v>
+        <v>0.1701283350156116</v>
       </c>
       <c r="Q13">
-        <v>352.1992961148733</v>
+        <v>529.610569039854</v>
       </c>
       <c r="R13">
-        <v>3169.793665033859</v>
+        <v>4766.495121358686</v>
       </c>
       <c r="S13">
-        <v>0.1525312795906482</v>
+        <v>0.1697890085777614</v>
       </c>
       <c r="T13">
-        <v>0.1525312795906482</v>
+        <v>0.1697890085777614</v>
       </c>
     </row>
   </sheetData>
